--- a/www/IndicatorsPerCountry/NorthKorea_CopperProduction_TerritorialRef_1948_2012_CCode_408.xlsx
+++ b/www/IndicatorsPerCountry/NorthKorea_CopperProduction_TerritorialRef_1948_2012_CCode_408.xlsx
@@ -762,13 +762,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/NorthKorea_CopperProduction_TerritorialRef_1948_2012_CCode_408.xlsx
+++ b/www/IndicatorsPerCountry/NorthKorea_CopperProduction_TerritorialRef_1948_2012_CCode_408.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="34">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,703 +36,49 @@
     <t>Copper Production</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>0</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>1</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>2</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.9</t>
+    <t>3</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.9</t>
+    <t>5</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>6.9</t>
+    <t>8</t>
   </si>
   <si>
-    <t>7</t>
+    <t>10</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>12</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>14.3</t>
+    <t>13</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>15.7</t>
+    <t>16</t>
   </si>
   <si>
-    <t>16.3</t>
+    <t>14</t>
   </si>
   <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t>16.6</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>15.6</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>17.1</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>23.4</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>25.2</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>26.6</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>31.9</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>34.8</t>
-  </si>
-  <si>
-    <t>37.9</t>
-  </si>
-  <si>
-    <t>41.1</t>
-  </si>
-  <si>
-    <t>41.6</t>
-  </si>
-  <si>
-    <t>42.9</t>
-  </si>
-  <si>
-    <t>43.6</t>
-  </si>
-  <si>
-    <t>45.9</t>
-  </si>
-  <si>
-    <t>46.7</t>
-  </si>
-  <si>
-    <t>45.5</t>
-  </si>
-  <si>
-    <t>49.3</t>
-  </si>
-  <si>
-    <t>47.7</t>
-  </si>
-  <si>
-    <t>53.1</t>
-  </si>
-  <si>
-    <t>47.8</t>
-  </si>
-  <si>
-    <t>55.1</t>
-  </si>
-  <si>
-    <t>50.3</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t>68.8</t>
-  </si>
-  <si>
-    <t>76.1</t>
-  </si>
-  <si>
-    <t>74.5</t>
-  </si>
-  <si>
-    <t>72.3</t>
-  </si>
-  <si>
-    <t>73.6</t>
-  </si>
-  <si>
-    <t>84.8</t>
-  </si>
-  <si>
-    <t>85.4</t>
-  </si>
-  <si>
-    <t>92.5</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>97.1</t>
-  </si>
-  <si>
-    <t>95.5</t>
-  </si>
-  <si>
-    <t>91.2</t>
-  </si>
-  <si>
-    <t>103.8</t>
-  </si>
-  <si>
-    <t>106.5</t>
-  </si>
-  <si>
-    <t>116.6</t>
-  </si>
-  <si>
-    <t>104.8</t>
-  </si>
-  <si>
-    <t>101.8</t>
-  </si>
-  <si>
-    <t>112.4</t>
-  </si>
-  <si>
-    <t>103.2</t>
-  </si>
-  <si>
-    <t>115.4</t>
-  </si>
-  <si>
-    <t>122.4</t>
-  </si>
-  <si>
-    <t>133.7</t>
-  </si>
-  <si>
-    <t>143.3</t>
-  </si>
-  <si>
-    <t>145.6</t>
-  </si>
-  <si>
-    <t>151.9</t>
-  </si>
-  <si>
-    <t>153.9</t>
-  </si>
-  <si>
-    <t>163.4</t>
-  </si>
-  <si>
-    <t>181.6</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>220.2</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>491</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>694</t>
-  </si>
-  <si>
-    <t>721</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>1457</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>1352</t>
-  </si>
-  <si>
-    <t>1395</t>
-  </si>
-  <si>
-    <t>1453</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1695</t>
-  </si>
-  <si>
-    <t>1895</t>
-  </si>
-  <si>
-    <t>1578</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1258</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>1673</t>
-  </si>
-  <si>
-    <t>2259</t>
-  </si>
-  <si>
-    <t>1939</t>
-  </si>
-  <si>
-    <t>2077</t>
-  </si>
-  <si>
-    <t>2413</t>
-  </si>
-  <si>
-    <t>2540</t>
-  </si>
-  <si>
-    <t>2680</t>
-  </si>
-  <si>
-    <t>2682</t>
-  </si>
-  <si>
-    <t>2520</t>
-  </si>
-  <si>
-    <t>2167</t>
-  </si>
-  <si>
-    <t>1845</t>
-  </si>
-  <si>
-    <t>2249</t>
-  </si>
-  <si>
-    <t>2327</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2519</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
-    <t>2731</t>
-  </si>
-  <si>
-    <t>2816</t>
-  </si>
-  <si>
-    <t>2829</t>
-  </si>
-  <si>
-    <t>3087</t>
-  </si>
-  <si>
-    <t>3443</t>
-  </si>
-  <si>
-    <t>3505</t>
-  </si>
-  <si>
-    <t>3416</t>
-  </si>
-  <si>
-    <t>3606</t>
-  </si>
-  <si>
-    <t>4287</t>
-  </si>
-  <si>
-    <t>4364</t>
-  </si>
-  <si>
-    <t>4574</t>
-  </si>
-  <si>
-    <t>4635</t>
-  </si>
-  <si>
-    <t>4851</t>
-  </si>
-  <si>
-    <t>4964</t>
-  </si>
-  <si>
-    <t>5097</t>
-  </si>
-  <si>
-    <t>4891</t>
-  </si>
-  <si>
-    <t>5508</t>
-  </si>
-  <si>
-    <t>5993</t>
-  </si>
-  <si>
-    <t>6310</t>
-  </si>
-  <si>
-    <t>6377</t>
-  </si>
-  <si>
-    <t>7009</t>
-  </si>
-  <si>
-    <t>7287</t>
-  </si>
-  <si>
-    <t>7546</t>
-  </si>
-  <si>
-    <t>7274</t>
-  </si>
-  <si>
-    <t>7674</t>
-  </si>
-  <si>
-    <t>8062.3</t>
-  </si>
-  <si>
-    <t>8070.9</t>
-  </si>
-  <si>
-    <t>8270.5</t>
-  </si>
-  <si>
-    <t>8397.7</t>
-  </si>
-  <si>
-    <t>8473.7</t>
-  </si>
-  <si>
-    <t>8654</t>
-  </si>
-  <si>
-    <t>8752.7</t>
-  </si>
-  <si>
-    <t>9019.3</t>
-  </si>
-  <si>
-    <t>8987.2</t>
-  </si>
-  <si>
-    <t>9099.6</t>
-  </si>
-  <si>
-    <t>9253.6</t>
-  </si>
-  <si>
-    <t>9430</t>
-  </si>
-  <si>
-    <t>9520</t>
-  </si>
-  <si>
-    <t>10100</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>11400</t>
-  </si>
-  <si>
-    <t>12100</t>
-  </si>
-  <si>
-    <t>12800</t>
-  </si>
-  <si>
-    <t>13200</t>
-  </si>
-  <si>
-    <t>13700</t>
-  </si>
-  <si>
-    <t>13600</t>
-  </si>
-  <si>
-    <t>13800</t>
-  </si>
-  <si>
-    <t>14700</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>15100</t>
-  </si>
-  <si>
-    <t>15500</t>
-  </si>
-  <si>
-    <t>15600</t>
-  </si>
-  <si>
-    <t>16000</t>
-  </si>
-  <si>
-    <t>16100</t>
+    <t>6.7</t>
   </si>
   <si>
     <t>Description</t>
@@ -884,7 +230,7 @@
         <v>1731.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +247,7 @@
         <v>1732.0</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -918,7 +264,7 @@
         <v>1733.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +298,7 @@
         <v>1735.0</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +315,7 @@
         <v>1736.0</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -986,7 +332,7 @@
         <v>1737.0</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1003,7 +349,7 @@
         <v>1738.0</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1020,7 +366,7 @@
         <v>1739.0</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +383,7 @@
         <v>1740.0</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1054,7 +400,7 @@
         <v>1741.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1071,7 +417,7 @@
         <v>1742.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1088,7 +434,7 @@
         <v>1743.0</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1105,7 +451,7 @@
         <v>1744.0</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1122,7 +468,7 @@
         <v>1745.0</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1139,7 +485,7 @@
         <v>1746.0</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1173,7 +519,7 @@
         <v>1748.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1190,7 +536,7 @@
         <v>1749.0</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1207,7 +553,7 @@
         <v>1750.0</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1224,7 +570,7 @@
         <v>1751.0</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +587,7 @@
         <v>1752.0</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1258,7 +604,7 @@
         <v>1753.0</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1275,7 +621,7 @@
         <v>1754.0</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1292,7 +638,7 @@
         <v>1755.0</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1309,7 +655,7 @@
         <v>1756.0</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +672,7 @@
         <v>1757.0</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1343,7 +689,7 @@
         <v>1758.0</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1360,7 +706,7 @@
         <v>1759.0</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1377,7 +723,7 @@
         <v>1760.0</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1394,7 +740,7 @@
         <v>1761.0</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1411,7 +757,7 @@
         <v>1762.0</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1428,7 +774,7 @@
         <v>1763.0</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1445,7 +791,7 @@
         <v>1764.0</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1462,7 +808,7 @@
         <v>1765.0</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1479,7 +825,7 @@
         <v>1766.0</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1496,7 +842,7 @@
         <v>1767.0</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1513,7 +859,7 @@
         <v>1768.0</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1530,7 +876,7 @@
         <v>1769.0</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1547,7 +893,7 @@
         <v>1770.0</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1564,7 +910,7 @@
         <v>1771.0</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1581,7 +927,7 @@
         <v>1772.0</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1598,7 +944,7 @@
         <v>1773.0</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1615,7 +961,7 @@
         <v>1774.0</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +978,7 @@
         <v>1775.0</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1649,7 +995,7 @@
         <v>1776.0</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1666,7 +1012,7 @@
         <v>1777.0</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1683,7 +1029,7 @@
         <v>1778.0</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1700,7 +1046,7 @@
         <v>1779.0</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1717,7 +1063,7 @@
         <v>1780.0</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -1734,7 +1080,7 @@
         <v>1781.0</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1751,7 +1097,7 @@
         <v>1782.0</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1768,7 +1114,7 @@
         <v>1783.0</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -1785,7 +1131,7 @@
         <v>1784.0</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1802,7 +1148,7 @@
         <v>1785.0</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1819,7 +1165,7 @@
         <v>1786.0</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -1836,7 +1182,7 @@
         <v>1787.0</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1853,7 +1199,7 @@
         <v>1788.0</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1870,7 +1216,7 @@
         <v>1789.0</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -1887,7 +1233,7 @@
         <v>1790.0</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -1904,7 +1250,7 @@
         <v>1791.0</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -1921,7 +1267,7 @@
         <v>1792.0</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -1938,7 +1284,7 @@
         <v>1793.0</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -1955,7 +1301,7 @@
         <v>1794.0</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -1972,7 +1318,7 @@
         <v>1795.0</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -1989,7 +1335,7 @@
         <v>1796.0</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2006,7 +1352,7 @@
         <v>1797.0</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -2023,7 +1369,7 @@
         <v>1798.0</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -2040,7 +1386,7 @@
         <v>1799.0</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -2057,7 +1403,7 @@
         <v>1800.0</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +1420,7 @@
         <v>1801.0</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -2091,7 +1437,7 @@
         <v>1802.0</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -2108,7 +1454,7 @@
         <v>1803.0</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -2125,7 +1471,7 @@
         <v>1804.0</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2142,7 +1488,7 @@
         <v>1805.0</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2159,7 +1505,7 @@
         <v>1806.0</v>
       </c>
       <c r="E79" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -2176,7 +1522,7 @@
         <v>1807.0</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2193,7 +1539,7 @@
         <v>1808.0</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -2210,7 +1556,7 @@
         <v>1809.0</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -2227,7 +1573,7 @@
         <v>1810.0</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -2244,7 +1590,7 @@
         <v>1811.0</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -2261,7 +1607,7 @@
         <v>1812.0</v>
       </c>
       <c r="E85" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -2278,7 +1624,7 @@
         <v>1813.0</v>
       </c>
       <c r="E86" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2295,7 +1641,7 @@
         <v>1814.0</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -2312,7 +1658,7 @@
         <v>1815.0</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -2329,7 +1675,7 @@
         <v>1816.0</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -2346,7 +1692,7 @@
         <v>1817.0</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -2363,7 +1709,7 @@
         <v>1818.0</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -2380,7 +1726,7 @@
         <v>1819.0</v>
       </c>
       <c r="E92" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2397,7 +1743,7 @@
         <v>1820.0</v>
       </c>
       <c r="E93" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -2414,7 +1760,7 @@
         <v>1821.0</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -2431,7 +1777,7 @@
         <v>1822.0</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2448,7 +1794,7 @@
         <v>1823.0</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -2465,7 +1811,7 @@
         <v>1824.0</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -2482,7 +1828,7 @@
         <v>1825.0</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2499,7 +1845,7 @@
         <v>1826.0</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -2516,7 +1862,7 @@
         <v>1827.0</v>
       </c>
       <c r="E100" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -2533,7 +1879,7 @@
         <v>1828.0</v>
       </c>
       <c r="E101" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -2550,7 +1896,7 @@
         <v>1829.0</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -2567,7 +1913,7 @@
         <v>1830.0</v>
       </c>
       <c r="E103" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -2584,7 +1930,7 @@
         <v>1831.0</v>
       </c>
       <c r="E104" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -2601,7 +1947,7 @@
         <v>1832.0</v>
       </c>
       <c r="E105" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -2618,7 +1964,7 @@
         <v>1833.0</v>
       </c>
       <c r="E106" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -2635,7 +1981,7 @@
         <v>1834.0</v>
       </c>
       <c r="E107" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2652,7 +1998,7 @@
         <v>1835.0</v>
       </c>
       <c r="E108" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -2669,7 +2015,7 @@
         <v>1836.0</v>
       </c>
       <c r="E109" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
@@ -2686,7 +2032,7 @@
         <v>1837.0</v>
       </c>
       <c r="E110" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -2703,7 +2049,7 @@
         <v>1838.0</v>
       </c>
       <c r="E111" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
@@ -2720,7 +2066,7 @@
         <v>1839.0</v>
       </c>
       <c r="E112" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -2737,7 +2083,7 @@
         <v>1840.0</v>
       </c>
       <c r="E113" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -2754,7 +2100,7 @@
         <v>1841.0</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -2771,7 +2117,7 @@
         <v>1842.0</v>
       </c>
       <c r="E115" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -2788,7 +2134,7 @@
         <v>1843.0</v>
       </c>
       <c r="E116" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2151,7 @@
         <v>1844.0</v>
       </c>
       <c r="E117" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2822,7 +2168,7 @@
         <v>1845.0</v>
       </c>
       <c r="E118" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2839,7 +2185,7 @@
         <v>1846.0</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2856,7 +2202,7 @@
         <v>1847.0</v>
       </c>
       <c r="E120" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -2873,7 +2219,7 @@
         <v>1848.0</v>
       </c>
       <c r="E121" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -2890,7 +2236,7 @@
         <v>1849.0</v>
       </c>
       <c r="E122" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2907,7 +2253,7 @@
         <v>1850.0</v>
       </c>
       <c r="E123" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -2924,7 +2270,7 @@
         <v>1851.0</v>
       </c>
       <c r="E124" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -2941,7 +2287,7 @@
         <v>1852.0</v>
       </c>
       <c r="E125" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -2958,7 +2304,7 @@
         <v>1853.0</v>
       </c>
       <c r="E126" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -2975,7 +2321,7 @@
         <v>1854.0</v>
       </c>
       <c r="E127" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2338,7 @@
         <v>1855.0</v>
       </c>
       <c r="E128" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -3009,7 +2355,7 @@
         <v>1856.0</v>
       </c>
       <c r="E129" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -3026,7 +2372,7 @@
         <v>1857.0</v>
       </c>
       <c r="E130" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -3043,7 +2389,7 @@
         <v>1858.0</v>
       </c>
       <c r="E131" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -3060,7 +2406,7 @@
         <v>1859.0</v>
       </c>
       <c r="E132" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -3077,7 +2423,7 @@
         <v>1860.0</v>
       </c>
       <c r="E133" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -3094,7 +2440,7 @@
         <v>1861.0</v>
       </c>
       <c r="E134" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -3111,7 +2457,7 @@
         <v>1862.0</v>
       </c>
       <c r="E135" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -3128,7 +2474,7 @@
         <v>1863.0</v>
       </c>
       <c r="E136" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -3145,7 +2491,7 @@
         <v>1864.0</v>
       </c>
       <c r="E137" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -3162,7 +2508,7 @@
         <v>1865.0</v>
       </c>
       <c r="E138" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -3179,7 +2525,7 @@
         <v>1866.0</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -3196,7 +2542,7 @@
         <v>1867.0</v>
       </c>
       <c r="E140" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -3213,7 +2559,7 @@
         <v>1868.0</v>
       </c>
       <c r="E141" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -3230,7 +2576,7 @@
         <v>1869.0</v>
       </c>
       <c r="E142" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
@@ -3247,7 +2593,7 @@
         <v>1870.0</v>
       </c>
       <c r="E143" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
@@ -3264,7 +2610,7 @@
         <v>1871.0</v>
       </c>
       <c r="E144" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -3281,7 +2627,7 @@
         <v>1872.0</v>
       </c>
       <c r="E145" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
@@ -3298,7 +2644,7 @@
         <v>1873.0</v>
       </c>
       <c r="E146" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -3315,7 +2661,7 @@
         <v>1874.0</v>
       </c>
       <c r="E147" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
@@ -3332,7 +2678,7 @@
         <v>1875.0</v>
       </c>
       <c r="E148" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -3349,7 +2695,7 @@
         <v>1876.0</v>
       </c>
       <c r="E149" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -3366,7 +2712,7 @@
         <v>1877.0</v>
       </c>
       <c r="E150" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +2729,7 @@
         <v>1878.0</v>
       </c>
       <c r="E151" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -3400,7 +2746,7 @@
         <v>1879.0</v>
       </c>
       <c r="E152" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -3417,7 +2763,7 @@
         <v>1880.0</v>
       </c>
       <c r="E153" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -3434,7 +2780,7 @@
         <v>1881.0</v>
       </c>
       <c r="E154" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -3451,7 +2797,7 @@
         <v>1882.0</v>
       </c>
       <c r="E155" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -3468,7 +2814,7 @@
         <v>1883.0</v>
       </c>
       <c r="E156" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -3485,7 +2831,7 @@
         <v>1884.0</v>
       </c>
       <c r="E157" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -3502,7 +2848,7 @@
         <v>1885.0</v>
       </c>
       <c r="E158" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3519,7 +2865,7 @@
         <v>1886.0</v>
       </c>
       <c r="E159" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -3536,7 +2882,7 @@
         <v>1887.0</v>
       </c>
       <c r="E160" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -3553,7 +2899,7 @@
         <v>1888.0</v>
       </c>
       <c r="E161" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
@@ -3570,7 +2916,7 @@
         <v>1889.0</v>
       </c>
       <c r="E162" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
@@ -3587,7 +2933,7 @@
         <v>1890.0</v>
       </c>
       <c r="E163" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -3604,7 +2950,7 @@
         <v>1891.0</v>
       </c>
       <c r="E164" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
@@ -3621,7 +2967,7 @@
         <v>1892.0</v>
       </c>
       <c r="E165" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -3638,7 +2984,7 @@
         <v>1893.0</v>
       </c>
       <c r="E166" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
@@ -3655,7 +3001,7 @@
         <v>1894.0</v>
       </c>
       <c r="E167" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -3672,7 +3018,7 @@
         <v>1895.0</v>
       </c>
       <c r="E168" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -3689,7 +3035,7 @@
         <v>1896.0</v>
       </c>
       <c r="E169" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
@@ -3706,7 +3052,7 @@
         <v>1897.0</v>
       </c>
       <c r="E170" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -3723,7 +3069,7 @@
         <v>1898.0</v>
       </c>
       <c r="E171" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -3740,7 +3086,7 @@
         <v>1899.0</v>
       </c>
       <c r="E172" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
@@ -3757,7 +3103,7 @@
         <v>1900.0</v>
       </c>
       <c r="E173" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -3774,7 +3120,7 @@
         <v>1901.0</v>
       </c>
       <c r="E174" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -3791,7 +3137,7 @@
         <v>1902.0</v>
       </c>
       <c r="E175" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -3808,7 +3154,7 @@
         <v>1903.0</v>
       </c>
       <c r="E176" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -3825,7 +3171,7 @@
         <v>1904.0</v>
       </c>
       <c r="E177" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -3842,7 +3188,7 @@
         <v>1905.0</v>
       </c>
       <c r="E178" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -3859,7 +3205,7 @@
         <v>1906.0</v>
       </c>
       <c r="E179" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -3876,7 +3222,7 @@
         <v>1907.0</v>
       </c>
       <c r="E180" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -3893,7 +3239,7 @@
         <v>1908.0</v>
       </c>
       <c r="E181" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -3910,7 +3256,7 @@
         <v>1909.0</v>
       </c>
       <c r="E182" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -3927,7 +3273,7 @@
         <v>1910.0</v>
       </c>
       <c r="E183" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -3944,7 +3290,7 @@
         <v>1911.0</v>
       </c>
       <c r="E184" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -3961,7 +3307,7 @@
         <v>1912.0</v>
       </c>
       <c r="E185" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -3978,7 +3324,7 @@
         <v>1913.0</v>
       </c>
       <c r="E186" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -3995,7 +3341,7 @@
         <v>1914.0</v>
       </c>
       <c r="E187" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -4012,7 +3358,7 @@
         <v>1915.0</v>
       </c>
       <c r="E188" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
@@ -4029,7 +3375,7 @@
         <v>1916.0</v>
       </c>
       <c r="E189" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -4046,7 +3392,7 @@
         <v>1917.0</v>
       </c>
       <c r="E190" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -4063,7 +3409,7 @@
         <v>1918.0</v>
       </c>
       <c r="E191" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
@@ -4080,7 +3426,7 @@
         <v>1919.0</v>
       </c>
       <c r="E192" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
@@ -4097,7 +3443,7 @@
         <v>1920.0</v>
       </c>
       <c r="E193" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
@@ -4114,7 +3460,7 @@
         <v>1921.0</v>
       </c>
       <c r="E194" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -4131,7 +3477,7 @@
         <v>1922.0</v>
       </c>
       <c r="E195" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -4148,7 +3494,7 @@
         <v>1923.0</v>
       </c>
       <c r="E196" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -4165,7 +3511,7 @@
         <v>1924.0</v>
       </c>
       <c r="E197" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -4182,7 +3528,7 @@
         <v>1925.0</v>
       </c>
       <c r="E198" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -4199,7 +3545,7 @@
         <v>1926.0</v>
       </c>
       <c r="E199" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
@@ -4216,7 +3562,7 @@
         <v>1927.0</v>
       </c>
       <c r="E200" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -4233,7 +3579,7 @@
         <v>1928.0</v>
       </c>
       <c r="E201" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -4250,7 +3596,7 @@
         <v>1929.0</v>
       </c>
       <c r="E202" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -4267,7 +3613,7 @@
         <v>1930.0</v>
       </c>
       <c r="E203" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
@@ -4284,7 +3630,7 @@
         <v>1931.0</v>
       </c>
       <c r="E204" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -4301,7 +3647,7 @@
         <v>1932.0</v>
       </c>
       <c r="E205" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
@@ -4318,7 +3664,7 @@
         <v>1933.0</v>
       </c>
       <c r="E206" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207">
@@ -4335,7 +3681,7 @@
         <v>1934.0</v>
       </c>
       <c r="E207" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
@@ -4352,7 +3698,7 @@
         <v>1935.0</v>
       </c>
       <c r="E208" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -4369,7 +3715,7 @@
         <v>1936.0</v>
       </c>
       <c r="E209" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
@@ -4386,7 +3732,7 @@
         <v>1937.0</v>
       </c>
       <c r="E210" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
@@ -4403,7 +3749,7 @@
         <v>1938.0</v>
       </c>
       <c r="E211" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212">
@@ -4420,7 +3766,7 @@
         <v>1939.0</v>
       </c>
       <c r="E212" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
@@ -4437,7 +3783,7 @@
         <v>1940.0</v>
       </c>
       <c r="E213" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
@@ -4454,7 +3800,7 @@
         <v>1941.0</v>
       </c>
       <c r="E214" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
@@ -4471,7 +3817,7 @@
         <v>1942.0</v>
       </c>
       <c r="E215" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216">
@@ -4488,7 +3834,7 @@
         <v>1943.0</v>
       </c>
       <c r="E216" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217">
@@ -4505,7 +3851,7 @@
         <v>1944.0</v>
       </c>
       <c r="E217" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218">
@@ -4522,7 +3868,7 @@
         <v>1945.0</v>
       </c>
       <c r="E218" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
@@ -4539,7 +3885,7 @@
         <v>1946.0</v>
       </c>
       <c r="E219" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -4556,7 +3902,7 @@
         <v>1947.0</v>
       </c>
       <c r="E220" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -4573,7 +3919,7 @@
         <v>1948.0</v>
       </c>
       <c r="E221" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
@@ -4590,7 +3936,7 @@
         <v>1949.0</v>
       </c>
       <c r="E222" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
@@ -4607,7 +3953,7 @@
         <v>1950.0</v>
       </c>
       <c r="E223" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
@@ -4624,7 +3970,7 @@
         <v>1951.0</v>
       </c>
       <c r="E224" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225">
@@ -4641,7 +3987,7 @@
         <v>1952.0</v>
       </c>
       <c r="E225" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
@@ -4658,7 +4004,7 @@
         <v>1953.0</v>
       </c>
       <c r="E226" t="s">
-        <v>187</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227">
@@ -4675,7 +4021,7 @@
         <v>1954.0</v>
       </c>
       <c r="E227" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228">
@@ -4692,7 +4038,7 @@
         <v>1955.0</v>
       </c>
       <c r="E228" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
@@ -4709,7 +4055,7 @@
         <v>1956.0</v>
       </c>
       <c r="E229" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
@@ -4726,7 +4072,7 @@
         <v>1957.0</v>
       </c>
       <c r="E230" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
@@ -4743,7 +4089,7 @@
         <v>1958.0</v>
       </c>
       <c r="E231" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232">
@@ -4760,7 +4106,7 @@
         <v>1959.0</v>
       </c>
       <c r="E232" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233">
@@ -4777,7 +4123,7 @@
         <v>1960.0</v>
       </c>
       <c r="E233" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234">
@@ -4794,7 +4140,7 @@
         <v>1961.0</v>
       </c>
       <c r="E234" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
@@ -4811,7 +4157,7 @@
         <v>1962.0</v>
       </c>
       <c r="E235" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236">
@@ -4828,7 +4174,7 @@
         <v>1963.0</v>
       </c>
       <c r="E236" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237">
@@ -4845,7 +4191,7 @@
         <v>1964.0</v>
       </c>
       <c r="E237" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
@@ -4862,7 +4208,7 @@
         <v>1965.0</v>
       </c>
       <c r="E238" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239">
@@ -4879,7 +4225,7 @@
         <v>1966.0</v>
       </c>
       <c r="E239" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240">
@@ -4896,7 +4242,7 @@
         <v>1967.0</v>
       </c>
       <c r="E240" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241">
@@ -4913,7 +4259,7 @@
         <v>1968.0</v>
       </c>
       <c r="E241" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242">
@@ -4930,7 +4276,7 @@
         <v>1969.0</v>
       </c>
       <c r="E242" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243">
@@ -4947,7 +4293,7 @@
         <v>1970.0</v>
       </c>
       <c r="E243" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244">
@@ -4964,7 +4310,7 @@
         <v>1971.0</v>
       </c>
       <c r="E244" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245">
@@ -4981,7 +4327,7 @@
         <v>1972.0</v>
       </c>
       <c r="E245" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246">
@@ -4998,7 +4344,7 @@
         <v>1973.0</v>
       </c>
       <c r="E246" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247">
@@ -5015,7 +4361,7 @@
         <v>1974.0</v>
       </c>
       <c r="E247" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248">
@@ -5032,7 +4378,7 @@
         <v>1975.0</v>
       </c>
       <c r="E248" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249">
@@ -5049,7 +4395,7 @@
         <v>1976.0</v>
       </c>
       <c r="E249" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250">
@@ -5066,7 +4412,7 @@
         <v>1977.0</v>
       </c>
       <c r="E250" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -5083,7 +4429,7 @@
         <v>1978.0</v>
       </c>
       <c r="E251" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252">
@@ -5100,7 +4446,7 @@
         <v>1979.0</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
@@ -5117,7 +4463,7 @@
         <v>1980.0</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254">
@@ -5134,7 +4480,7 @@
         <v>1981.0</v>
       </c>
       <c r="E254" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -5151,7 +4497,7 @@
         <v>1982.0</v>
       </c>
       <c r="E255" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256">
@@ -5168,7 +4514,7 @@
         <v>1983.0</v>
       </c>
       <c r="E256" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257">
@@ -5185,7 +4531,7 @@
         <v>1984.0</v>
       </c>
       <c r="E257" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258">
@@ -5202,7 +4548,7 @@
         <v>1985.0</v>
       </c>
       <c r="E258" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259">
@@ -5219,7 +4565,7 @@
         <v>1986.0</v>
       </c>
       <c r="E259" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
@@ -5236,7 +4582,7 @@
         <v>1987.0</v>
       </c>
       <c r="E260" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261">
@@ -5253,7 +4599,7 @@
         <v>1988.0</v>
       </c>
       <c r="E261" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262">
@@ -5270,7 +4616,7 @@
         <v>1989.0</v>
       </c>
       <c r="E262" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263">
@@ -5287,7 +4633,7 @@
         <v>1990.0</v>
       </c>
       <c r="E263" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
@@ -5304,7 +4650,7 @@
         <v>1991.0</v>
       </c>
       <c r="E264" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
@@ -5321,7 +4667,7 @@
         <v>1992.0</v>
       </c>
       <c r="E265" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266">
@@ -5338,7 +4684,7 @@
         <v>1993.0</v>
       </c>
       <c r="E266" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267">
@@ -5355,7 +4701,7 @@
         <v>1994.0</v>
       </c>
       <c r="E267" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268">
@@ -5372,7 +4718,7 @@
         <v>1995.0</v>
       </c>
       <c r="E268" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269">
@@ -5389,7 +4735,7 @@
         <v>1996.0</v>
       </c>
       <c r="E269" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270">
@@ -5406,7 +4752,7 @@
         <v>1997.0</v>
       </c>
       <c r="E270" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271">
@@ -5423,7 +4769,7 @@
         <v>1998.0</v>
       </c>
       <c r="E271" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272">
@@ -5440,7 +4786,7 @@
         <v>1999.0</v>
       </c>
       <c r="E272" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273">
@@ -5457,7 +4803,7 @@
         <v>2000.0</v>
       </c>
       <c r="E273" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274">
@@ -5474,7 +4820,7 @@
         <v>2001.0</v>
       </c>
       <c r="E274" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275">
@@ -5491,7 +4837,7 @@
         <v>2002.0</v>
       </c>
       <c r="E275" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276">
@@ -5508,7 +4854,7 @@
         <v>2003.0</v>
       </c>
       <c r="E276" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277">
@@ -5525,7 +4871,7 @@
         <v>2004.0</v>
       </c>
       <c r="E277" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -5542,7 +4888,7 @@
         <v>2005.0</v>
       </c>
       <c r="E278" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279">
@@ -5559,7 +4905,7 @@
         <v>2006.0</v>
       </c>
       <c r="E279" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -5576,7 +4922,7 @@
         <v>2007.0</v>
       </c>
       <c r="E280" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="281">
@@ -5593,7 +4939,7 @@
         <v>2008.0</v>
       </c>
       <c r="E281" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
@@ -5610,7 +4956,7 @@
         <v>2009.0</v>
       </c>
       <c r="E282" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283">
@@ -5627,7 +4973,7 @@
         <v>2010.0</v>
       </c>
       <c r="E283" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284">
@@ -5644,7 +4990,7 @@
         <v>2011.0</v>
       </c>
       <c r="E284" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285">
@@ -5661,7 +5007,7 @@
         <v>2012.0</v>
       </c>
       <c r="E285" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5679,50 +5025,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
